--- a/database/dna_polymerases.xlsx
+++ b/database/dna_polymerases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -239,7 +239,7 @@
 2nd Strand Synthesis</t>
   </si>
   <si>
-    <t xml:space="preserve">T7 (unmodified)</t>
+    <t xml:space="preserve">T7</t>
   </si>
   <si>
     <t xml:space="preserve">18 nM</t>
@@ -297,6 +297,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -318,6 +319,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -325,17 +327,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,14 +425,14 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
@@ -1543,7 +1548,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/database/dna_polymerases.xlsx
+++ b/database/dna_polymerases.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Phusion High-Fidelity" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Q5" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="M-MuLV Reverse Transcriptase" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="171">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -365,107 +366,79 @@
     <t xml:space="preserve">PCR, Sequencing</t>
   </si>
   <si>
-    <t xml:space="preserve">Reaction Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 µl Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 µl Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclease-free water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to 20 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to 50 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5X Phusion HF or GC Buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 mM dNTPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4 µl</t>
+    <t xml:space="preserve">Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1ug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reagent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLUME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up to 1 µg*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d(T)23VN (50 µM) or Random Primer Mix (60 µM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 µl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 mM dNTP</t>
   </si>
   <si>
     <t xml:space="preserve">1 µl</t>
   </si>
   <si>
-    <t xml:space="preserve">200 µM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 µM Forward Primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 µM Reverse Primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 250 ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMSO (optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.6 µl)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.5 µl)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phusion DNA 
-Polymerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 units/50 µl PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermocycling conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEMP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIME </t>
+    <t xml:space="preserve">Nuclease-free H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To a total volume of 10 µl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incubate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spin briefly and promptly put on ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermocycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step</t>
   </si>
   <si>
     <t xml:space="preserve">Initial Denaturation</t>
@@ -505,93 +478,66 @@
     <t xml:space="preserve">4-10°C</t>
   </si>
   <si>
-    <t xml:space="preserve">General Guidelines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 ng–250 ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasmid or viral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 pg–10 ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPONENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 µl REACTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 µl REACTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINAL CONCENTRATION</t>
+    <t xml:space="preserve">Template DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ng–1 µg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasmid,viral,rDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 pg–1 ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
   </si>
   <si>
     <t xml:space="preserve">5X Q5 
 Reaction Buffer</t>
   </si>
   <si>
-    <t xml:space="preserve">5 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 1,000 ng</t>
+    <t xml:space="preserve">10 µl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 mM dNTPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 µM Forward Primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 µl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 µM Reverse Primer</t>
   </si>
   <si>
     <t xml:space="preserve">Q5 High-Fidelity DNA Polymerase</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 U/µl</t>
+    <t xml:space="preserve">0.5 µl</t>
   </si>
   <si>
     <t xml:space="preserve">5X Q5 High GC Enhancer (optional)</t>
   </si>
   <si>
-    <t xml:space="preserve">(5 µl)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(10 µl)</t>
   </si>
   <si>
-    <t xml:space="preserve">(1X)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuclease-Free Water</t>
   </si>
   <si>
-    <t xml:space="preserve">to 25 µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIME</t>
+    <t xml:space="preserve">fill to 50 uL</t>
   </si>
   <si>
     <t xml:space="preserve">25–35 Cycles</t>
   </si>
   <si>
     <t xml:space="preserve">98°C
-*50–72°C
+50–72°C
 72°C</t>
   </si>
   <si>
@@ -604,29 +550,16 @@
   </si>
   <si>
     <t xml:space="preserve">4–10°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA Genomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ng–1 µg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasmid or Viral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 pg–1 ng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -683,6 +616,14 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -726,7 +667,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -755,6 +696,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,12 +708,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -794,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2171,10 +2120,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2186,224 +2135,157 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="C13" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C17" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="B18" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="8" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="B19" s="13" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2422,10 +2304,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2437,232 +2319,167 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>123</v>
+      <c r="A2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>127</v>
+      <c r="A4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>80</v>
+      <c r="A6" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>178</v>
+      <c r="A8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="C21" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>192</v>
+      <c r="B22" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2674,4 +2491,34 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>